--- a/Тесты на требования 2.xlsx
+++ b/Тесты на требования 2.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владелец\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Владелец\OneDrive\Документы\My_second_Repo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A2787-C18B-4C23-AED3-722CC8ED3E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1762E5E8-602C-4089-8FF3-65CAFA7D7A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -403,6 +412,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -415,8 +427,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -427,20 +448,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,297 +748,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="11"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="12"/>
+      <c r="F1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="A3" s="13">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="8">
+        <v>1</v>
+      </c>
       <c r="G3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+      <c r="A4" s="14">
         <v>2</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="8">
+        <v>1</v>
+      </c>
       <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12" t="s">
+      <c r="A6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="12"/>
+      <c r="F6" s="8">
+        <v>1</v>
+      </c>
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="12" t="s">
+      <c r="A7" s="15"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="A8" s="13">
         <v>2</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="12"/>
+      <c r="F8" s="8"/>
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="12"/>
+      <c r="F9" s="8"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="12" t="s">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="12"/>
+      <c r="F10" s="8"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="12" t="s">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="12"/>
+      <c r="F11" s="8"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16">
+      <c r="A12" s="13">
         <v>3</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="8"/>
       <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="12" t="s">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="8"/>
       <c r="G13" s="4"/>
     </row>
     <row r="14" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="12" t="s">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="8"/>
       <c r="G14" s="4"/>
     </row>
     <row r="15" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="12" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="8"/>
       <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
+      <c r="A16" s="13">
         <v>4</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="8"/>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="8"/>
       <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="12" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F18" s="12"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="4"/>
     </row>
   </sheetData>
